--- a/Experiments/221220_serine_titrate/buffers-mt.xlsx
+++ b/Experiments/221220_serine_titrate/buffers-mt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/221220_serine_titrate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/221220_serine_titrate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA1FF4-9C46-B245-AB9A-1C4A4D712A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABDD4CF-5B5D-094F-A32F-E312A0EE157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>ATP</t>
   </si>
   <si>
-    <t>acetylCoA</t>
-  </si>
-  <si>
     <t>Mg-Act</t>
   </si>
   <si>
@@ -109,13 +106,16 @@
   </si>
   <si>
     <t>Pyruvate</t>
+  </si>
+  <si>
+    <t>acetyl-CoA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +144,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,16 +167,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +413,7 @@
   <dimension ref="A1:T994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D6" sqref="A1:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -405,59 +429,59 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -506,7 +530,7 @@
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -555,7 +579,7 @@
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -604,7 +628,7 @@
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -653,7 +677,7 @@
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -700,7 +724,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -749,7 +773,7 @@
     </row>
     <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
@@ -777,7 +801,7 @@
     </row>
     <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
@@ -805,7 +829,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
@@ -832,7 +856,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
